--- a/data/普通工作表示例.xlsx
+++ b/data/普通工作表示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25965" windowHeight="10785"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>唯一ID</t>
   </si>
   <si>
+    <t>注释</t>
+  </si>
+  <si>
     <t>布尔值</t>
   </si>
   <si>
@@ -35,12 +38,21 @@
     <t>数组</t>
   </si>
   <si>
-    <t>数组2</t>
+    <t>二维数组</t>
+  </si>
+  <si>
+    <t>数组字典</t>
   </si>
   <si>
     <t>字典</t>
   </si>
   <si>
+    <t>字典数组</t>
+  </si>
+  <si>
+    <t>字典二维数组</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
     <t>arr2_data</t>
   </si>
   <si>
+    <t>arr3_data</t>
+  </si>
+  <si>
     <t>dic_data</t>
   </si>
   <si>
@@ -71,6 +86,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -86,6 +104,9 @@
     <t>[[int]]</t>
   </si>
   <si>
+    <t>[{id=int,num=int}]</t>
+  </si>
+  <si>
     <t>{id=int,num=int}</t>
   </si>
   <si>
@@ -95,6 +116,12 @@
     <t>{id=int,nums=[[int]]}</t>
   </si>
   <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>哈哈</t>
   </si>
   <si>
@@ -104,6 +131,9 @@
     <t>1,2|3,4|5,6</t>
   </si>
   <si>
+    <t>1/2|3/4</t>
+  </si>
+  <si>
     <t>1001/1002</t>
   </si>
   <si>
@@ -113,10 +143,22 @@
     <t>1001/1,2|3,4</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>呵呵</t>
   </si>
   <si>
     <t>200, 300</t>
+  </si>
+  <si>
+    <t>2,4|7</t>
+  </si>
+  <si>
+    <t>5/6|7/8</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
   <si>
     <t>子表ID</t>
@@ -142,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,44 +205,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,20 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -236,71 +318,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +369,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,25 +477,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,120 +537,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,18 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,24 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -570,30 +594,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,16 +627,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,22 +1156,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="10" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="12" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1155,138 +1198,182 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D5" s="6">
         <v>100</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E5" s="6">
         <v>1.2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
+    <row r="6" spans="1:12">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>200</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E6" s="6">
         <v>0.1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1389,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1320,68 +1407,68 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1404,7 +1491,7 @@
         <v>1.2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -1421,7 +1508,7 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -1438,7 +1525,7 @@
         <v>1.1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1461,7 +1548,7 @@
         <v>2.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -1478,7 +1565,7 @@
         <v>3.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/普通工作表示例.xlsx
+++ b/data/普通工作表示例.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="#Test2" sheetId="3" r:id="rId2"/>
+    <sheet name="Test3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>唯一ID</t>
   </si>
@@ -184,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -205,52 +206,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,44 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -311,21 +266,59 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -335,7 +328,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,181 +370,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,10 +575,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -613,6 +621,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,33 +653,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,153 +673,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,68 +836,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1154,15 +1155,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -1173,218 +1174,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>1.2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>200</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>0.1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1392,179 +1393,179 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="11.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>1.2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>200</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>0.1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>300</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>1.1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>400</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>2.1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>3.1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1572,4 +1573,113 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/普通工作表示例.xlsx
+++ b/data/普通工作表示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>唯一ID</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>可可</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -185,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,6 +209,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -213,17 +223,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,14 +253,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,7 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,75 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,181 +373,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,8 +579,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,21 +605,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,16 +640,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,160 +673,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -841,54 +844,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1155,15 +1158,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -1385,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1393,7 +1396,7 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="3" width="11.125" style="4" customWidth="1"/>
@@ -1576,17 +1579,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.94166666666667" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,31 +1597,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1626,16 +1635,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1643,38 +1655,37 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
-        <v>200</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>0.1</v>
       </c>
     </row>

--- a/data/普通工作表示例.xlsx
+++ b/data/普通工作表示例.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="#Test2" sheetId="3" r:id="rId2"/>
     <sheet name="Test3" sheetId="4" r:id="rId3"/>
+    <sheet name="Test4" sheetId="5" r:id="rId4"/>
+    <sheet name="Test5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
   <si>
     <t>唯一ID</t>
   </si>
@@ -181,6 +183,102 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>等级1</t>
+  </si>
+  <si>
+    <t>等级2</t>
+  </si>
+  <si>
+    <t>等级3</t>
+  </si>
+  <si>
+    <t>等级4</t>
+  </si>
+  <si>
+    <t>等级5</t>
+  </si>
+  <si>
+    <t>等级6</t>
+  </si>
+  <si>
+    <t>等级7</t>
+  </si>
+  <si>
+    <t>等级8</t>
+  </si>
+  <si>
+    <t>等级9</t>
+  </si>
+  <si>
+    <t>等级10</t>
+  </si>
+  <si>
+    <t>等级11</t>
+  </si>
+  <si>
+    <t>等级12</t>
+  </si>
+  <si>
+    <t>等级13</t>
+  </si>
+  <si>
+    <t>等级14</t>
+  </si>
+  <si>
+    <t>等级15</t>
+  </si>
+  <si>
+    <t>等级16</t>
+  </si>
+  <si>
+    <t>等级17</t>
+  </si>
+  <si>
+    <t>等级18</t>
+  </si>
+  <si>
+    <t>等级19</t>
+  </si>
+  <si>
+    <t>等级20</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Exps</t>
+  </si>
+  <si>
+    <t>*int</t>
+  </si>
+  <si>
+    <t>每级消耗经验</t>
+  </si>
+  <si>
+    <t>每级消耗道具id</t>
+  </si>
+  <si>
+    <t>道具/经验</t>
+  </si>
+  <si>
+    <t>*[int]</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
   </si>
 </sst>
 </file>
@@ -188,12 +286,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,9 +301,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -216,66 +333,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,17 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +371,30 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +417,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -351,8 +454,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,37 +489,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,133 +639,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,11 +692,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,26 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,154 +807,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1163,7 +1291,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1177,206 +1305,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>1.2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>200</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>0.1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1393,182 +1521,182 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="3" width="11.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="3" width="11.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="10.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>100</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>1.2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>200</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>0.1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>300</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>1.1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>400</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <v>2.1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>500</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>3.1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1584,50 +1712,230 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94166666666667" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
+    <col min="3" max="22" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,62 +1943,426 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
       <c r="E5" s="3">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O5" s="3">
+        <v>6500</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>7500</v>
+      </c>
+      <c r="R5" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S5" s="3">
+        <v>8500</v>
+      </c>
+      <c r="T5" s="3">
+        <v>9000</v>
+      </c>
+      <c r="U5" s="3">
+        <v>9500</v>
+      </c>
+      <c r="V5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
       <c r="F6" s="3">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="2">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="2">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="2">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>